--- a/data/trans_orig/CoPsoQ_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R2-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>37300</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29437</v>
+        <v>28230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46371</v>
+        <v>46435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4747667160070608</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3746932134968711</v>
+        <v>0.3593289987709371</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5902288004191246</v>
+        <v>0.5910473376028468</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -764,19 +764,19 @@
         <v>49774</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40552</v>
+        <v>40335</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58439</v>
+        <v>59472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5668976284288361</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4618648379168342</v>
+        <v>0.4593855871379188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6655809553538754</v>
+        <v>0.6773477400390489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -785,19 +785,19 @@
         <v>87073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72389</v>
+        <v>73700</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99938</v>
+        <v>98953</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5233899078743499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4351241488771648</v>
+        <v>0.4430030975394229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6007166943939548</v>
+        <v>0.594795315040631</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>41264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32193</v>
+        <v>32129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49127</v>
+        <v>50334</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5252332839929392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4097711995808754</v>
+        <v>0.4089526623971531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.625306786503129</v>
+        <v>0.6406710012290623</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -835,19 +835,19 @@
         <v>38027</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29362</v>
+        <v>28329</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47249</v>
+        <v>47466</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4331023715711639</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3344190446461246</v>
+        <v>0.3226522599609512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5381351620831658</v>
+        <v>0.5406144128620812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -856,19 +856,19 @@
         <v>79291</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66426</v>
+        <v>67411</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93975</v>
+        <v>92664</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.47661009212565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3992833056060452</v>
+        <v>0.405204684959369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5648758511228353</v>
+        <v>0.5569969024605772</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>226264</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208512</v>
+        <v>207291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>247751</v>
+        <v>245677</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5969010085786142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.550069961596248</v>
+        <v>0.5468477544300336</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.653584437468692</v>
+        <v>0.6481141428307239</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -981,19 +981,19 @@
         <v>151054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132619</v>
+        <v>133548</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>167136</v>
+        <v>167564</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5514266927463753</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4841295085845816</v>
+        <v>0.4875190562142367</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6101332970978628</v>
+        <v>0.6116959303900091</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>362</v>
@@ -1002,19 +1002,19 @@
         <v>377318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>352354</v>
+        <v>353365</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>403540</v>
+        <v>404780</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5778245045028624</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5395938773674904</v>
+        <v>0.5411421598343983</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6179809818412297</v>
+        <v>0.6198794531662859</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>152801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>131314</v>
+        <v>133388</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>170553</v>
+        <v>171774</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4030989914213858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3464155625313083</v>
+        <v>0.3518858571692762</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4499300384037521</v>
+        <v>0.4531522455699664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>111</v>
@@ -1052,19 +1052,19 @@
         <v>122879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106797</v>
+        <v>106369</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>141314</v>
+        <v>140385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4485733072536246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3898667029021372</v>
+        <v>0.3883040696099909</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5158704914154181</v>
+        <v>0.5124809437857634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>257</v>
@@ -1073,19 +1073,19 @@
         <v>275680</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>249458</v>
+        <v>248218</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>300644</v>
+        <v>299633</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4221754954971376</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3820190181587702</v>
+        <v>0.380120546833714</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4604061226325095</v>
+        <v>0.4588578401656018</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>248820</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>227336</v>
+        <v>228461</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>267550</v>
+        <v>270095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6014833174108715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.549549220945697</v>
+        <v>0.5522686432344808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6467608077708039</v>
+        <v>0.6529121381939195</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -1198,19 +1198,19 @@
         <v>156341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139872</v>
+        <v>139708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172559</v>
+        <v>172742</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5650307189896431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5055113216441754</v>
+        <v>0.5049176598424844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6236441968525821</v>
+        <v>0.6243060937476678</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>395</v>
@@ -1219,19 +1219,19 @@
         <v>405161</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>379292</v>
+        <v>378504</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>432744</v>
+        <v>432046</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5868734386593584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5494030463461667</v>
+        <v>0.5482610657296562</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6268270115408496</v>
+        <v>0.625815752512253</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>164857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>146127</v>
+        <v>143582</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>186341</v>
+        <v>185216</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3985166825891285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.353239192229196</v>
+        <v>0.3470878618060805</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4504507790543029</v>
+        <v>0.4477313567655192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>114</v>
@@ -1269,19 +1269,19 @@
         <v>120354</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104136</v>
+        <v>103953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>136823</v>
+        <v>136987</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4349692810103569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.376355803147418</v>
+        <v>0.3756939062523322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4944886783558246</v>
+        <v>0.4950823401575157</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>268</v>
@@ -1290,19 +1290,19 @@
         <v>285211</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>257628</v>
+        <v>258326</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>311080</v>
+        <v>311868</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4131265613406417</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3731729884591504</v>
+        <v>0.3741842474877471</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4505969536538334</v>
+        <v>0.4517389342703438</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>208078</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185216</v>
+        <v>188801</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228445</v>
+        <v>227762</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5728138909844788</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5098785102140884</v>
+        <v>0.5197478419336631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6288836857303498</v>
+        <v>0.627003903055025</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -1415,19 +1415,19 @@
         <v>112652</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96205</v>
+        <v>98495</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127827</v>
+        <v>130073</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5147213857822277</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4395738616531811</v>
+        <v>0.4500346404904931</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5840602816936461</v>
+        <v>0.5943208762792799</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>282</v>
@@ -1436,19 +1436,19 @@
         <v>320730</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>295260</v>
+        <v>295395</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>346449</v>
+        <v>347023</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5509726194663507</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5072191941799014</v>
+        <v>0.507450998410337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5951546299047324</v>
+        <v>0.596139857497301</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>155177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134810</v>
+        <v>135493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178039</v>
+        <v>174454</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4271861090155213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3711163142696502</v>
+        <v>0.3729960969449753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4901214897859117</v>
+        <v>0.480252158066337</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -1486,19 +1486,19 @@
         <v>106208</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91033</v>
+        <v>88787</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>122655</v>
+        <v>120365</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4852786142177724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4159397183063538</v>
+        <v>0.4056791237207202</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5604261383468194</v>
+        <v>0.549965359509507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -1507,19 +1507,19 @@
         <v>261386</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>235667</v>
+        <v>235093</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>286856</v>
+        <v>286721</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4490273805336494</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4048453700952675</v>
+        <v>0.4038601425026991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4927808058200986</v>
+        <v>0.492549001589663</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>89546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76204</v>
+        <v>76348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102125</v>
+        <v>101745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5767509511437943</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4908178897766242</v>
+        <v>0.4917450224170846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6577728544974161</v>
+        <v>0.6553240772820883</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1632,19 +1632,19 @@
         <v>33259</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24859</v>
+        <v>24949</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42716</v>
+        <v>41504</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4844145263899111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3620631960264394</v>
+        <v>0.3633773145261064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6221509538243921</v>
+        <v>0.6045005196058608</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -1653,19 +1653,19 @@
         <v>122805</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106150</v>
+        <v>107473</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137080</v>
+        <v>137258</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5484387068477279</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.474058509393237</v>
+        <v>0.4799679325576161</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6121896636391768</v>
+        <v>0.6129861493898664</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>65713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53134</v>
+        <v>53514</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79055</v>
+        <v>78911</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4232490488562058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3422271455025842</v>
+        <v>0.3446759227179117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5091821102233766</v>
+        <v>0.5082549775829154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1703,19 +1703,19 @@
         <v>35399</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25942</v>
+        <v>27154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43799</v>
+        <v>43709</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5155854736100889</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3778490461756079</v>
+        <v>0.3954994803941391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6379368039735606</v>
+        <v>0.6366226854738932</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -1724,19 +1724,19 @@
         <v>101112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86837</v>
+        <v>86659</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>117767</v>
+        <v>116444</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4515612931522721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3878103363608232</v>
+        <v>0.3870138506101338</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5259414906067632</v>
+        <v>0.5200320674423845</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>810007</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5828143100462408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>465</v>
@@ -1849,19 +1849,19 @@
         <v>503080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5433142340123405</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1233</v>
@@ -1870,19 +1870,19 @@
         <v>1313087</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5670204211383862</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>579813</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>545330</v>
+        <v>543921</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>617230</v>
+        <v>622281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4171856899537592</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3923746592438774</v>
+        <v>0.3913605053264275</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4441080603005515</v>
+        <v>0.4477423583425383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>389</v>
@@ -1920,19 +1920,19 @@
         <v>422867</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>392396</v>
+        <v>392037</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>454484</v>
+        <v>451944</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4566857659876595</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4237782831520274</v>
+        <v>0.4233900381676505</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4908313897992688</v>
+        <v>0.4880887981687831</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>926</v>
@@ -1941,19 +1941,19 @@
         <v>1002680</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>957445</v>
+        <v>955890</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1054842</v>
+        <v>1055577</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4329795788616138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4134460668921436</v>
+        <v>0.4127748497834844</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4555045369547215</v>
+        <v>0.455821665855491</v>
       </c>
     </row>
     <row r="21">
@@ -2286,19 +2286,19 @@
         <v>38362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29576</v>
+        <v>29414</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47155</v>
+        <v>46693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4849318276324103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3738667844893617</v>
+        <v>0.3718219301533187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.596080329771532</v>
+        <v>0.5902322520435102</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -2307,19 +2307,19 @@
         <v>52597</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43197</v>
+        <v>43708</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60940</v>
+        <v>61999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5726056813599442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.470272307968603</v>
+        <v>0.4758389013776771</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6634392802261564</v>
+        <v>0.674969768626035</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -2328,19 +2328,19 @@
         <v>90959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77923</v>
+        <v>78539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103840</v>
+        <v>102434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5320368634633716</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4557842002891342</v>
+        <v>0.459391692218398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6073803355065652</v>
+        <v>0.5991531179679513</v>
       </c>
     </row>
     <row r="5">
@@ -2357,19 +2357,19 @@
         <v>40747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31954</v>
+        <v>32416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49533</v>
+        <v>49695</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5150681723675897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.403919670228468</v>
+        <v>0.4097677479564899</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6261332155106381</v>
+        <v>0.6281780698466815</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -2378,19 +2378,19 @@
         <v>39258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30915</v>
+        <v>29856</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48658</v>
+        <v>48147</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4273943186400558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3365607197738437</v>
+        <v>0.325030231373965</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5297276920313972</v>
+        <v>0.5241610986223231</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -2399,19 +2399,19 @@
         <v>80005</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67124</v>
+        <v>68530</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93041</v>
+        <v>92425</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4679631365366283</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3926196644934348</v>
+        <v>0.4008468820320487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5442157997108655</v>
+        <v>0.540608307781602</v>
       </c>
     </row>
     <row r="6">
@@ -2503,19 +2503,19 @@
         <v>197627</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>177281</v>
+        <v>178538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>214575</v>
+        <v>216245</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5741896967571483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5150753845433401</v>
+        <v>0.5187261297919941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6234296353604695</v>
+        <v>0.6282809909773657</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -2524,19 +2524,19 @@
         <v>156572</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141547</v>
+        <v>140569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>171529</v>
+        <v>172285</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5720252110583834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5171312106679578</v>
+        <v>0.5135561747080888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6266684971328355</v>
+        <v>0.6294289801220598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>353</v>
@@ -2545,19 +2545,19 @@
         <v>354201</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>328319</v>
+        <v>328176</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>377280</v>
+        <v>378922</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5732308790766192</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5313453956730918</v>
+        <v>0.5311126077790906</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6105822207615758</v>
+        <v>0.613240248419967</v>
       </c>
     </row>
     <row r="8">
@@ -2574,19 +2574,19 @@
         <v>146558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>129610</v>
+        <v>127940</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>166904</v>
+        <v>165647</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4258103032428517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3765703646395305</v>
+        <v>0.3717190090226343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4849246154566599</v>
+        <v>0.481273870208006</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -2595,19 +2595,19 @@
         <v>117144</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>102187</v>
+        <v>101431</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>132169</v>
+        <v>133147</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4279747889416166</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3733315028671647</v>
+        <v>0.3705710198779402</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4828687893320422</v>
+        <v>0.4864438252919112</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>259</v>
@@ -2616,19 +2616,19 @@
         <v>263701</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>240622</v>
+        <v>238980</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>289583</v>
+        <v>289726</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4267691209233808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3894177792384242</v>
+        <v>0.386759751580033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4686546043269081</v>
+        <v>0.4688873922209092</v>
       </c>
     </row>
     <row r="9">
@@ -2720,19 +2720,19 @@
         <v>258798</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>234891</v>
+        <v>237247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>279029</v>
+        <v>280997</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.563109517470366</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5110911733263273</v>
+        <v>0.5162176607580902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6071277316030915</v>
+        <v>0.6114104516308579</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>175</v>
@@ -2741,19 +2741,19 @@
         <v>174917</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157200</v>
+        <v>158589</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>193338</v>
+        <v>191962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5510675661367999</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4952514397056983</v>
+        <v>0.4996295825503435</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6091033872482488</v>
+        <v>0.6047698677909118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>420</v>
@@ -2762,19 +2762,19 @@
         <v>433714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>405390</v>
+        <v>404976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>460048</v>
+        <v>462523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5581902472299666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5217364594064138</v>
+        <v>0.5212033323428303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5920821410076241</v>
+        <v>0.5952666037794421</v>
       </c>
     </row>
     <row r="11">
@@ -2791,19 +2791,19 @@
         <v>200790</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180559</v>
+        <v>178591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>224697</v>
+        <v>222341</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.436890482529634</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3928722683969084</v>
+        <v>0.388589548369142</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4889088266736726</v>
+        <v>0.4837823392419097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -2812,19 +2812,19 @@
         <v>142497</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>124076</v>
+        <v>125452</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160214</v>
+        <v>158825</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4489324338632001</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3908966127517512</v>
+        <v>0.3952301322090882</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5047485602943017</v>
+        <v>0.5003704174496565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>336</v>
@@ -2833,19 +2833,19 @@
         <v>343287</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>316953</v>
+        <v>314478</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>371611</v>
+        <v>372025</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4418097527700334</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4079178589923759</v>
+        <v>0.4047333962205579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4782635405935862</v>
+        <v>0.4787966676571697</v>
       </c>
     </row>
     <row r="12">
@@ -2937,19 +2937,19 @@
         <v>194586</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173605</v>
+        <v>174066</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>214265</v>
+        <v>214832</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5291576509445467</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.472102954817247</v>
+        <v>0.4733556929416247</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5826737931949726</v>
+        <v>0.5842134298620515</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>120</v>
@@ -2958,19 +2958,19 @@
         <v>132141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116246</v>
+        <v>116497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>149032</v>
+        <v>147412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5435265980193243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4781447932592254</v>
+        <v>0.4791781073802373</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6130025351366624</v>
+        <v>0.6063400661621714</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -2979,19 +2979,19 @@
         <v>326727</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>299642</v>
+        <v>301083</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>352120</v>
+        <v>350643</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5348765211709279</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4905365925481464</v>
+        <v>0.4928945567338224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5764468184159844</v>
+        <v>0.5740282137133136</v>
       </c>
     </row>
     <row r="14">
@@ -3008,19 +3008,19 @@
         <v>173142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>153463</v>
+        <v>152896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>194123</v>
+        <v>193662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4708423490554533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4173262068050274</v>
+        <v>0.4157865701379486</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.527897045182753</v>
+        <v>0.5266443070583753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -3029,19 +3029,19 @@
         <v>110977</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>94086</v>
+        <v>95706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126872</v>
+        <v>126621</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4564734019806757</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3869974648633375</v>
+        <v>0.3936599338378285</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5218552067407745</v>
+        <v>0.5208218926197627</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>257</v>
@@ -3050,19 +3050,19 @@
         <v>284119</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>258726</v>
+        <v>260203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>311204</v>
+        <v>309763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4651234788290721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4235531815840156</v>
+        <v>0.4259717862866864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5094634074518536</v>
+        <v>0.5071054432661777</v>
       </c>
     </row>
     <row r="15">
@@ -3154,19 +3154,19 @@
         <v>88556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74710</v>
+        <v>74112</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102641</v>
+        <v>102077</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5343495499699352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4508038649656156</v>
+        <v>0.4471983889425242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6193388747180371</v>
+        <v>0.6159385106050698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3175,19 +3175,19 @@
         <v>53028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42319</v>
+        <v>41858</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65315</v>
+        <v>64993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5008317456820948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3996881685449549</v>
+        <v>0.3953362527738892</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6168837427804416</v>
+        <v>0.6138417923459352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -3196,19 +3196,19 @@
         <v>141583</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123349</v>
+        <v>123225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158402</v>
+        <v>158973</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5212834318898306</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4541481679238972</v>
+        <v>0.4536929755643748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5832058245425437</v>
+        <v>0.5853097807031641</v>
       </c>
     </row>
     <row r="17">
@@ -3225,19 +3225,19 @@
         <v>77170</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63085</v>
+        <v>63649</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>91016</v>
+        <v>91614</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4656504500300648</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3806611252819629</v>
+        <v>0.3840614893949303</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5491961350343845</v>
+        <v>0.5528016110574759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -3246,19 +3246,19 @@
         <v>52851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40564</v>
+        <v>40886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63560</v>
+        <v>64021</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4991682543179052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3831162572195585</v>
+        <v>0.3861582076540649</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6003118314550451</v>
+        <v>0.6046637472261108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -3267,19 +3267,19 @@
         <v>130022</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113203</v>
+        <v>112632</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148256</v>
+        <v>148380</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4787165681101693</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4167941754574566</v>
+        <v>0.4146902192968359</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5458518320761029</v>
+        <v>0.5463070244356252</v>
       </c>
     </row>
     <row r="18">
@@ -3371,19 +3371,19 @@
         <v>777931</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5492552692122116</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>556</v>
@@ -3392,19 +3392,19 @@
         <v>569254</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5516127117179139</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1283</v>
@@ -3413,19 +3413,19 @@
         <v>1347184</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5502489460869632</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
     </row>
     <row r="20">
@@ -3442,19 +3442,19 @@
         <v>638406</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>595207</v>
+        <v>599689</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>675486</v>
+        <v>676082</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4507447307877884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4202440721160052</v>
+        <v>0.423408136594807</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4769245097167036</v>
+        <v>0.4773453029402996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>452</v>
@@ -3463,19 +3463,19 @@
         <v>462728</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>430675</v>
+        <v>430839</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>496693</v>
+        <v>493234</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4483872882820861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4173283486636059</v>
+        <v>0.4174870139568154</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.481299797574738</v>
+        <v>0.4779482612014401</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1042</v>
@@ -3484,19 +3484,19 @@
         <v>1101134</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1050110</v>
+        <v>1052077</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1155003</v>
+        <v>1149693</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4497510539130369</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.428910624405331</v>
+        <v>0.4297142621018023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4717535920808754</v>
+        <v>0.469584637801248</v>
       </c>
     </row>
     <row r="21">
@@ -3829,19 +3829,19 @@
         <v>15158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6567</v>
+        <v>7168</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23698</v>
+        <v>24041</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5035112320527744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2181323543131593</v>
+        <v>0.2380940198922687</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7871625886682102</v>
+        <v>0.7985608937766999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3850,19 +3850,19 @@
         <v>14594</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8032</v>
+        <v>8144</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20688</v>
+        <v>20213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5519333464497606</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.303761269994486</v>
+        <v>0.3080092515602409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7824090547561348</v>
+        <v>0.764463688546682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -3871,19 +3871,19 @@
         <v>29751</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18321</v>
+        <v>19037</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40705</v>
+        <v>41012</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5261535053435742</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3239994289655281</v>
+        <v>0.3366747788792481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7198726368386256</v>
+        <v>0.725294801013791</v>
       </c>
     </row>
     <row r="5">
@@ -3900,19 +3900,19 @@
         <v>14947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6407</v>
+        <v>6064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23538</v>
+        <v>22937</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4964887679472256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.21283741133179</v>
+        <v>0.2014391062233002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7818676456868411</v>
+        <v>0.7619059801077315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3921,19 +3921,19 @@
         <v>11847</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5753</v>
+        <v>6228</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18409</v>
+        <v>18297</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4480666535502394</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2175909452438652</v>
+        <v>0.235536311453318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6962387300055141</v>
+        <v>0.6919907484397592</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -3942,19 +3942,19 @@
         <v>26794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15840</v>
+        <v>15533</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38224</v>
+        <v>37508</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.473846494656426</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2801273631613747</v>
+        <v>0.2747051989862092</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.676000571034473</v>
+        <v>0.6633252211207519</v>
       </c>
     </row>
     <row r="6">
@@ -4046,19 +4046,19 @@
         <v>46649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32448</v>
+        <v>32961</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61728</v>
+        <v>61433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3935288832462649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2737269824704494</v>
+        <v>0.2780522630195966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5207336064352875</v>
+        <v>0.5182467185966372</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -4067,19 +4067,19 @@
         <v>39356</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29418</v>
+        <v>30214</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48796</v>
+        <v>49226</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4288450192459595</v>
+        <v>0.4288450192459593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3205557973448639</v>
+        <v>0.3292263704966356</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5317063278399067</v>
+        <v>0.5363989380662662</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -4088,19 +4088,19 @@
         <v>86005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66580</v>
+        <v>69360</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102195</v>
+        <v>103805</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4089393992383459</v>
+        <v>0.4089393992383458</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3165793152200203</v>
+        <v>0.3297941222061572</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4859232177592309</v>
+        <v>0.4935769104741891</v>
       </c>
     </row>
     <row r="8">
@@ -4117,19 +4117,19 @@
         <v>71892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56813</v>
+        <v>57108</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>86093</v>
+        <v>85580</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6064711167537349</v>
+        <v>0.606471116753735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4792663935647129</v>
+        <v>0.481753281403363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7262730175295508</v>
+        <v>0.7219477369804034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -4138,19 +4138,19 @@
         <v>52416</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42976</v>
+        <v>42546</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62354</v>
+        <v>61558</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5711549807540405</v>
+        <v>0.5711549807540404</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4682936721600933</v>
+        <v>0.4636010619337338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6794442026551358</v>
+        <v>0.6707736295033647</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -4159,19 +4159,19 @@
         <v>124307</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>108117</v>
+        <v>106507</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>143732</v>
+        <v>140952</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5910606007616542</v>
+        <v>0.5910606007616541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5140767822407691</v>
+        <v>0.5064230895258111</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6834206847799803</v>
+        <v>0.6702058777938427</v>
       </c>
     </row>
     <row r="9">
@@ -4263,19 +4263,19 @@
         <v>44816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34479</v>
+        <v>33979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56896</v>
+        <v>56202</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3798206040958732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2922102120981866</v>
+        <v>0.2879750179260841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4821972829637062</v>
+        <v>0.4763126785060381</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -4284,19 +4284,19 @@
         <v>51341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42725</v>
+        <v>43040</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60137</v>
+        <v>60561</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4937631601508142</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4109015796759339</v>
+        <v>0.4139315917952646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5783573114763264</v>
+        <v>0.5824374692283671</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -4305,19 +4305,19 @@
         <v>96158</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81650</v>
+        <v>82323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110985</v>
+        <v>110407</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4331950384914386</v>
+        <v>0.4331950384914385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3678390497273774</v>
+        <v>0.370871539417428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.499994198517469</v>
+        <v>0.4973888531863428</v>
       </c>
     </row>
     <row r="11">
@@ -4334,19 +4334,19 @@
         <v>73177</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61097</v>
+        <v>61791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>83514</v>
+        <v>84014</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6201793959041266</v>
+        <v>0.6201793959041267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5178027170362935</v>
+        <v>0.5236873214939616</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7077897879018135</v>
+        <v>0.712024982073916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -4355,19 +4355,19 @@
         <v>52638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43842</v>
+        <v>43418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61254</v>
+        <v>60939</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5062368398491859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4216426885236735</v>
+        <v>0.4175625307716329</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5890984203240663</v>
+        <v>0.5860684082047354</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>134</v>
@@ -4376,19 +4376,19 @@
         <v>125815</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>110988</v>
+        <v>111566</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>140323</v>
+        <v>139650</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5668049615085614</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.500005801482531</v>
+        <v>0.5026111468136573</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6321609502726225</v>
+        <v>0.6291284605825721</v>
       </c>
     </row>
     <row r="12">
@@ -4480,19 +4480,19 @@
         <v>50973</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40124</v>
+        <v>39115</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62889</v>
+        <v>62397</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3715992850506336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2925058078221577</v>
+        <v>0.2851495380677232</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4584670255598532</v>
+        <v>0.4548814051745269</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -4501,19 +4501,19 @@
         <v>49805</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41715</v>
+        <v>41111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59148</v>
+        <v>57968</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.412452860727527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3454610059852459</v>
+        <v>0.3404513890671465</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4898278846105448</v>
+        <v>0.4800568040436005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -4522,19 +4522,19 @@
         <v>100778</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86505</v>
+        <v>86686</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115365</v>
+        <v>115194</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3907257557701035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3353913502791298</v>
+        <v>0.3360898897789495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4472838701303387</v>
+        <v>0.4466206059720526</v>
       </c>
     </row>
     <row r="14">
@@ -4551,19 +4551,19 @@
         <v>86199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>74283</v>
+        <v>74775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97048</v>
+        <v>98057</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6284007149493667</v>
+        <v>0.6284007149493666</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5415329744401466</v>
+        <v>0.545118594825473</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.707494192177842</v>
+        <v>0.7148504619322769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -4572,19 +4572,19 @@
         <v>70948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61605</v>
+        <v>62785</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79038</v>
+        <v>79642</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5875471392724728</v>
+        <v>0.5875471392724729</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5101721153894553</v>
+        <v>0.5199431959563995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6545389940147542</v>
+        <v>0.6595486109328536</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>190</v>
@@ -4593,19 +4593,19 @@
         <v>157146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142559</v>
+        <v>142730</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>171419</v>
+        <v>171238</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6092742442298965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5527161298696613</v>
+        <v>0.5533793940279479</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6646086497208703</v>
+        <v>0.6639101102210504</v>
       </c>
     </row>
     <row r="15">
@@ -4697,19 +4697,19 @@
         <v>30073</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22631</v>
+        <v>22508</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38709</v>
+        <v>38183</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.438390423301716</v>
+        <v>0.4383904233017161</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3299108417415623</v>
+        <v>0.3281082801140763</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5642867499196609</v>
+        <v>0.5566266224716839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -4718,19 +4718,19 @@
         <v>21895</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16864</v>
+        <v>16962</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26975</v>
+        <v>26624</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5334076550400091</v>
+        <v>0.5334076550400089</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4108387442169546</v>
+        <v>0.4132172381831729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6571461811006911</v>
+        <v>0.6486079442172002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -4739,19 +4739,19 @@
         <v>51968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42949</v>
+        <v>41708</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60775</v>
+        <v>61384</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.473961933854936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3917024853030581</v>
+        <v>0.3803916693544366</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5542848602292619</v>
+        <v>0.5598380241727695</v>
       </c>
     </row>
     <row r="17">
@@ -4768,19 +4768,19 @@
         <v>38525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29889</v>
+        <v>30415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45967</v>
+        <v>46090</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.561609576698284</v>
+        <v>0.5616095766982842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4357132500803391</v>
+        <v>0.4433733775283161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6700891582584377</v>
+        <v>0.6718917198859238</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -4789,19 +4789,19 @@
         <v>19153</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14073</v>
+        <v>14424</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24184</v>
+        <v>24086</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.466592344959991</v>
+        <v>0.4665923449599908</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3428538188993091</v>
+        <v>0.3513920557828001</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5891612557830456</v>
+        <v>0.586782761816828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -4810,19 +4810,19 @@
         <v>57678</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48871</v>
+        <v>48262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66697</v>
+        <v>67938</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.526038066145064</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4457151397707382</v>
+        <v>0.440161975827231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6082975146969422</v>
+        <v>0.6196083306455634</v>
       </c>
     </row>
     <row r="18">
@@ -4914,19 +4914,19 @@
         <v>187669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -4935,19 +4935,19 @@
         <v>176990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>378</v>
@@ -4956,19 +4956,19 @@
         <v>364659</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="20">
@@ -4985,19 +4985,19 @@
         <v>284739</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259440</v>
+        <v>258074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>310690</v>
+        <v>308457</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6027396747926661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5491857679208594</v>
+        <v>0.5462947468930942</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6576730244297083</v>
+        <v>0.65294655486485</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>269</v>
@@ -5006,19 +5006,19 @@
         <v>207002</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189109</v>
+        <v>188693</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>225615</v>
+        <v>224270</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5390778801245432</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4924812720583398</v>
+        <v>0.4913989850486561</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5875513546025867</v>
+        <v>0.5840482558289545</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>503</v>
@@ -5027,19 +5027,19 @@
         <v>491741</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>461508</v>
+        <v>460098</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521925</v>
+        <v>520798</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5741950291609282</v>
+        <v>0.5741950291609283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.538892849113159</v>
+        <v>0.5372463046383531</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6094403816867551</v>
+        <v>0.6081243641501684</v>
       </c>
     </row>
     <row r="21">
